--- a/po forecast comparison/B08F7BHDLY_forecast_po_comparison.xlsx
+++ b/po forecast comparison/B08F7BHDLY_forecast_po_comparison.xlsx
@@ -492,7 +492,7 @@
         <v>45683</v>
       </c>
       <c r="B5" t="n">
-        <v>154.9</v>
+        <v>156.4</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>45711</v>
       </c>
       <c r="B9" t="n">
-        <v>145.9</v>
+        <v>146.4</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>45718</v>
       </c>
       <c r="B10" t="n">
-        <v>164.2</v>
+        <v>163.7</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>45732</v>
       </c>
       <c r="B12" t="n">
-        <v>157.6</v>
+        <v>157.1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
         <v>45739</v>
       </c>
       <c r="B13" t="n">
-        <v>135.6</v>
+        <v>134.6</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>45746</v>
       </c>
       <c r="B14" t="n">
-        <v>123.7</v>
+        <v>123.2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>45753</v>
       </c>
       <c r="B15" t="n">
-        <v>133.3</v>
+        <v>133.8</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
